--- a/xlsx_sorted/AK620 G2换扇.xlsx
+++ b/xlsx_sorted/AK620 G2换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB539E3-BF86-4F0A-9F0A-3D10730110C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBAE4B-9DC5-4138-9BD5-AC67697BD8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>FK12 V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>莫比乌斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢影12Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A12x25G2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +433,28 @@
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>49.7</v>
       </c>
@@ -470,8 +506,48 @@
       <c r="O2">
         <v>2391</v>
       </c>
+      <c r="P2">
+        <v>45.9</v>
+      </c>
+      <c r="Q2">
+        <f>76.1-21.83</f>
+        <v>54.269999999999996</v>
+      </c>
+      <c r="R2">
+        <v>2027</v>
+      </c>
+      <c r="S2">
+        <v>43.4</v>
+      </c>
+      <c r="T2">
+        <f>77-21.99</f>
+        <v>55.010000000000005</v>
+      </c>
+      <c r="U2">
+        <v>1818</v>
+      </c>
+      <c r="V2">
+        <v>54</v>
+      </c>
+      <c r="W2">
+        <f>74.5-21.66</f>
+        <v>52.84</v>
+      </c>
+      <c r="X2">
+        <v>3271</v>
+      </c>
+      <c r="Y2">
+        <v>49.8</v>
+      </c>
+      <c r="Z2">
+        <f>75.5-21.74</f>
+        <v>53.760000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>1993</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>39.9</v>
       </c>
@@ -522,14 +598,58 @@
       <c r="O3">
         <v>1798</v>
       </c>
+      <c r="P3">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <f>78.1-22</f>
+        <v>56.099999999999994</v>
+      </c>
+      <c r="R3">
+        <v>1600</v>
+      </c>
+      <c r="S3">
+        <v>40</v>
+      </c>
+      <c r="T3">
+        <f>78.1-21.97</f>
+        <v>56.129999999999995</v>
+      </c>
+      <c r="U3">
+        <v>1582</v>
+      </c>
+      <c r="V3">
+        <v>40</v>
+      </c>
+      <c r="W3">
+        <f>78.2-21.81</f>
+        <v>56.39</v>
+      </c>
+      <c r="X3">
+        <v>1929</v>
+      </c>
+      <c r="Y3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="Z3">
+        <f>78.3-21.9</f>
+        <v>56.4</v>
+      </c>
+      <c r="AA3">
+        <v>1396</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx_sorted/AK620 G2换扇.xlsx
+++ b/xlsx_sorted/AK620 G2换扇.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop_\Syncthing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADBAE4B-9DC5-4138-9BD5-AC67697BD8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1BA91F-FB9E-4F83-A5C0-CAEB80DBF0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>FK12 V2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>SC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P12Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT120K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +469,31 @@
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>49.7</v>
       </c>
@@ -546,8 +585,48 @@
       <c r="AA2">
         <v>1993</v>
       </c>
+      <c r="AB2">
+        <v>57.9</v>
+      </c>
+      <c r="AC2">
+        <f>74-21.79</f>
+        <v>52.21</v>
+      </c>
+      <c r="AD2">
+        <v>3014</v>
+      </c>
+      <c r="AE2">
+        <v>51.9</v>
+      </c>
+      <c r="AF2">
+        <f>75.1-21.88</f>
+        <v>53.22</v>
+      </c>
+      <c r="AG2">
+        <v>3020</v>
+      </c>
+      <c r="AH2">
+        <v>53.9</v>
+      </c>
+      <c r="AI2">
+        <f>75-21.92</f>
+        <v>53.08</v>
+      </c>
+      <c r="AJ2">
+        <v>3046</v>
+      </c>
+      <c r="AK2">
+        <v>63.6</v>
+      </c>
+      <c r="AL2">
+        <f>73.2-21.9</f>
+        <v>51.300000000000004</v>
+      </c>
+      <c r="AM2">
+        <v>4220</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>39.9</v>
       </c>
@@ -638,12 +717,57 @@
       <c r="AA3">
         <v>1396</v>
       </c>
+      <c r="AB3">
+        <v>40.4</v>
+      </c>
+      <c r="AC3">
+        <f>78-22</f>
+        <v>56</v>
+      </c>
+      <c r="AD3">
+        <v>1578</v>
+      </c>
+      <c r="AE3">
+        <v>39.9</v>
+      </c>
+      <c r="AF3">
+        <f>78.5-21.97</f>
+        <v>56.53</v>
+      </c>
+      <c r="AG3">
+        <v>1841</v>
+      </c>
+      <c r="AH3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AI3">
+        <f>79-22</f>
+        <v>57</v>
+      </c>
+      <c r="AJ3">
+        <v>1759</v>
+      </c>
+      <c r="AK3">
+        <v>40</v>
+      </c>
+      <c r="AL3">
+        <f>78-21.94</f>
+        <v>56.06</v>
+      </c>
+      <c r="AM3">
+        <v>1809</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AH1:AJ1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
